--- a/TestWebApp/the_site/results.xlsx
+++ b/TestWebApp/the_site/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +24,7 @@
     <t>Company A - Share Value</t>
   </si>
   <si>
-    <t>2019-02-26 10:28:34</t>
+    <t>2019-02-26 15:46:04</t>
   </si>
   <si>
     <t>2019-01-31</t>

--- a/TestWebApp/the_site/results.xlsx
+++ b/TestWebApp/the_site/results.xlsx
@@ -24,7 +24,7 @@
     <t>Company A - Share Value</t>
   </si>
   <si>
-    <t>2019-02-26 15:46:04</t>
+    <t>2019-02-26 16:00:01</t>
   </si>
   <si>
     <t>2019-01-31</t>

--- a/TestWebApp/the_site/results.xlsx
+++ b/TestWebApp/the_site/results.xlsx
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>46.34</v>
+        <v>191.91</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>46.74</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>47.11</v>
+        <v>194.36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>47.49</v>
+        <v>192.63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>47.22</v>
+        <v>187.75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>46.75</v>
+        <v>181.95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1202,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>45.34</v>
+        <v>176.09</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>43.82</v>
+        <v>171.6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>42.21</v>
+        <v>169.7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>41.14</v>
+        <v>165.81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1234,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>40.45</v>
+        <v>163.66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>39.67</v>
+        <v>162.19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1250,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>39.44</v>
+        <v>158.85</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1258,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>38.93</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1266,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>38.52</v>
+        <v>153.27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>37.87</v>
+        <v>148.98</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>37.71</v>
+        <v>143.57</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1290,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>38.02</v>
+        <v>139.18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>38.06</v>
+        <v>134.05</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>38</v>
+        <v>130.41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1314,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>37.83</v>
+        <v>126.54</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1322,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>37.28</v>
+        <v>121.66</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1330,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>36.26</v>
+        <v>116.7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>35.23</v>
+        <v>112.23</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>34.1</v>
+        <v>107.84</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>33.02</v>
+        <v>106.01</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1362,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>31.59</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1370,7 +1370,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>30.25</v>
+        <v>102.81</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1378,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>30</v>
+        <v>101.72</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1386,7 +1386,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>29.69</v>
+        <v>102.33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1394,7 +1394,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>29.29</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1402,7 +1402,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>28.83</v>
+        <v>104.17</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>28.71</v>
+        <v>105.64</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1418,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>28.84</v>
+        <v>107.88</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>29.45</v>
+        <v>111.18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1434,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>30.32</v>
+        <v>113.42</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1442,7 +1442,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>30.98</v>
+        <v>116.27</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>31.16</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>30.55</v>
+        <v>121.76</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>28.91</v>
+        <v>121.69</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1474,7 +1474,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>27.76</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>27.07</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1490,7 +1490,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>26.29</v>
+        <v>121.62</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1498,7 +1498,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>25.12</v>
+        <v>119.53</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>23.7</v>
+        <v>117.15</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>22.16</v>
+        <v>113.52</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>20.93</v>
+        <v>110.26</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>19.79</v>
+        <v>161.18</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>18.94</v>
+        <v>207.45</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1546,7 +1546,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>18.88</v>
+        <v>249.42</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1554,7 +1554,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>18.62</v>
+        <v>290.62</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1562,7 +1562,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="n">
-        <v>18.61</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1570,7 +1570,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="n">
-        <v>18.63</v>
+        <v>373.75</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="n">
-        <v>18.98</v>
+        <v>419.49</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1586,7 +1586,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="n">
-        <v>19.11</v>
+        <v>461.59</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1594,7 +1594,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>19.19</v>
+        <v>499.94</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1602,7 +1602,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="n">
-        <v>19.13</v>
+        <v>539.9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="n">
-        <v>19.16</v>
+        <v>522.08</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="n">
-        <v>19.03</v>
+        <v>503.15</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1626,7 +1626,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="n">
-        <v>18.93</v>
+        <v>494.45</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1634,7 +1634,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4" t="n">
-        <v>18.83</v>
+        <v>486.55</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1642,7 +1642,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="n">
-        <v>18.81</v>
+        <v>480.48</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1650,7 +1650,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="n">
-        <v>18.75</v>
+        <v>468.71</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1658,7 +1658,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="n">
-        <v>18.41</v>
+        <v>458.82</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="n">
-        <v>18.16</v>
+        <v>461.8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1674,7 +1674,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="n">
-        <v>17.86</v>
+        <v>473.32</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1682,7 +1682,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="n">
-        <v>17.77</v>
+        <v>483.83</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1690,7 +1690,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="n">
-        <v>17.81</v>
+        <v>505.41</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1698,7 +1698,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>17.86</v>
+        <v>531.72</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1706,7 +1706,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="n">
-        <v>18</v>
+        <v>548.23</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1714,7 +1714,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>18.22</v>
+        <v>562.26</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="n">
-        <v>18.28</v>
+        <v>574.99</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1730,7 +1730,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>18.65</v>
+        <v>589.6799999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1738,7 +1738,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4" t="n">
-        <v>19.01</v>
+        <v>603.95</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1746,7 +1746,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="n">
-        <v>19.49</v>
+        <v>603.38</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1754,7 +1754,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>20.34</v>
+        <v>589.86</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>20.9</v>
+        <v>570.98</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1770,7 +1770,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="4" t="n">
-        <v>21.46</v>
+        <v>542.08</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="n">
-        <v>22</v>
+        <v>515.25</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1786,7 +1786,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="4" t="n">
-        <v>22.14</v>
+        <v>491.69</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1794,7 +1794,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="n">
-        <v>22.56</v>
+        <v>471.8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1802,7 +1802,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="n">
-        <v>23.09</v>
+        <v>454.66</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1810,7 +1810,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="n">
-        <v>23.37</v>
+        <v>429.77</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1818,7 +1818,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="4" t="n">
-        <v>23.86</v>
+        <v>404.47</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="n">
-        <v>24.24</v>
+        <v>384.63</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="n">
-        <v>24.21</v>
+        <v>373.9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1842,7 +1842,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="n">
-        <v>24.24</v>
+        <v>368.51</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1850,7 +1850,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="n">
-        <v>24.11</v>
+        <v>364.38</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1858,7 +1858,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="4" t="n">
-        <v>24.13</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1866,7 +1866,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="4" t="n">
-        <v>24.37</v>
+        <v>350.69</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="n">
-        <v>24.23</v>
+        <v>342.33</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1882,7 +1882,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="n">
-        <v>23.73</v>
+        <v>330.93</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="n">
-        <v>22.95</v>
+        <v>322.08</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1898,7 +1898,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="n">
-        <v>22.07</v>
+        <v>313.24</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1906,7 +1906,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="n">
-        <v>20.98</v>
+        <v>303.7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1914,7 +1914,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="4" t="n">
-        <v>20.05</v>
+        <v>294.56</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1922,7 +1922,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="4" t="n">
-        <v>19.24</v>
+        <v>285.39</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>18.4</v>
+        <v>275.01</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1938,7 +1938,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="4" t="n">
-        <v>17.6</v>
+        <v>263.02</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="4" t="n">
-        <v>16.78</v>
+        <v>250.73</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="n">
-        <v>16.05</v>
+        <v>241.85</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1962,7 +1962,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="4" t="n">
-        <v>15.89</v>
+        <v>233.7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1970,7 +1970,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="4" t="n">
-        <v>16.05</v>
+        <v>227.94</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1978,7 +1978,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="4" t="n">
-        <v>15.99</v>
+        <v>220.43</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="n">
-        <v>16.07</v>
+        <v>211.79</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="n">
-        <v>16.25</v>
+        <v>202.35</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2002,7 +2002,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>16.15</v>
+        <v>190.31</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2010,7 +2010,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="n">
-        <v>16.13</v>
+        <v>180.21</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2018,7 +2018,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>15.77</v>
+        <v>172.22</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2026,7 +2026,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="4" t="n">
-        <v>15.27</v>
+        <v>163.39</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2034,7 +2034,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="4" t="n">
-        <v>14.57</v>
+        <v>150.98</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="n">
-        <v>13.56</v>
+        <v>139.66</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2050,7 +2050,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="n">
-        <v>12.62</v>
+        <v>129.27</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="n">
-        <v>11.79</v>
+        <v>119.86</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2066,7 +2066,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="n">
-        <v>11.72</v>
+        <v>113.66</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2074,7 +2074,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="n">
-        <v>12.36</v>
+        <v>108.33</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2082,7 +2082,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="n">
-        <v>13.68</v>
+        <v>111.22</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2090,7 +2090,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="n">
-        <v>15.49</v>
+        <v>113.57</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2098,7 +2098,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="n">
-        <v>17.27</v>
+        <v>117.39</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2106,7 +2106,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="n">
-        <v>19</v>
+        <v>125.83</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="n">
-        <v>20.52</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2122,7 +2122,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="n">
-        <v>22.38</v>
+        <v>140.12</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2130,7 +2130,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="n">
-        <v>24.22</v>
+        <v>143.98</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="4" t="n">
-        <v>25.97</v>
+        <v>148.47</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2146,7 +2146,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="4" t="n">
-        <v>27.03</v>
+        <v>157.81</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2154,7 +2154,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="4" t="n">
-        <v>27.39</v>
+        <v>164.8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2162,7 +2162,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="4" t="n">
-        <v>27.14</v>
+        <v>166.42</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="4" t="n">
-        <v>26.39</v>
+        <v>165.89</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2178,7 +2178,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="4" t="n">
-        <v>25.88</v>
+        <v>163.48</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2186,7 +2186,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="4" t="n">
-        <v>25.32</v>
+        <v>157.99</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2194,7 +2194,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="4" t="n">
-        <v>25.35</v>
+        <v>152.6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2202,7 +2202,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="4" t="n">
-        <v>25.24</v>
+        <v>150.08</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="4" t="n">
-        <v>24.75</v>
+        <v>147.59</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2218,7 +2218,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="4" t="n">
-        <v>24.98</v>
+        <v>143.38</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2226,7 +2226,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="4" t="n">
-        <v>24.08</v>
+        <v>131.86</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2234,7 +2234,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="4" t="n">
-        <v>23.66</v>
+        <v>122.3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2242,7 +2242,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="4" t="n">
-        <v>23.95</v>
+        <v>112.06</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2250,7 +2250,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="4" t="n">
-        <v>24.92</v>
+        <v>105.78</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2258,7 +2258,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="4" t="n">
-        <v>25.3</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2266,7 +2266,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="4" t="n">
-        <v>25.46</v>
+        <v>94.04000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2274,7 +2274,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="4" t="n">
-        <v>25.63</v>
+        <v>88.79000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2282,7 +2282,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="4" t="n">
-        <v>24.71</v>
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2290,7 +2290,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="4" t="n">
-        <v>24.15</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2298,7 +2298,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="4" t="n">
-        <v>22.55</v>
+        <v>75.76000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2306,7 +2306,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="4" t="n">
-        <v>21.82</v>
+        <v>74.44</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2314,7 +2314,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="4" t="n">
-        <v>20.47</v>
+        <v>72.18000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="4" t="n">
-        <v>18.58</v>
+        <v>70.45</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2330,7 +2330,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="4" t="n">
-        <v>16.01</v>
+        <v>68.77</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2338,7 +2338,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="4" t="n">
-        <v>14.09</v>
+        <v>67.89</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2346,7 +2346,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="4" t="n">
-        <v>12.65</v>
+        <v>67.28</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2354,7 +2354,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="4" t="n">
-        <v>11</v>
+        <v>66.16</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2362,7 +2362,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="4" t="n">
-        <v>10.33</v>
+        <v>64.84999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2370,7 +2370,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2378,7 +2378,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2386,7 +2386,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2394,7 +2394,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2402,7 +2402,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="4" t="n">
-        <v>7.86</v>
+        <v>53.02</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2410,7 +2410,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="4" t="n">
-        <v>7.72</v>
+        <v>49.73</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2418,7 +2418,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="4" t="n">
-        <v>7.6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2426,7 +2426,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="4" t="n">
-        <v>7.61</v>
+        <v>47.81</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2434,7 +2434,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="4" t="n">
-        <v>7.5</v>
+        <v>48.56</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2442,7 +2442,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="4" t="n">
-        <v>7.4</v>
+        <v>49.92</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="4" t="n">
-        <v>7.44</v>
+        <v>50.47</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="4" t="n">
-        <v>7.54</v>
+        <v>50.13</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2466,7 +2466,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="4" t="n">
-        <v>7.75</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2474,7 +2474,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2482,7 +2482,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>48.59</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2490,7 +2490,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="4" t="n">
-        <v>8.07</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2498,7 +2498,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="4" t="n">
-        <v>7.89</v>
+        <v>45.26</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="4" t="n">
-        <v>7.74</v>
+        <v>40.25</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2514,7 +2514,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="4" t="n">
-        <v>7.63</v>
+        <v>36.18</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2522,7 +2522,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="4" t="n">
-        <v>7.54</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2530,7 +2530,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="4" t="n">
-        <v>7.39</v>
+        <v>28.55</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2538,7 +2538,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="4" t="n">
-        <v>7.1</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2546,7 +2546,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="4" t="n">
-        <v>6.75</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2554,7 +2554,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="4" t="n">
-        <v>6.11</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2562,7 +2562,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="4" t="n">
-        <v>5.45</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2570,7 +2570,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="4" t="n">
-        <v>4.98</v>
+        <v>22.93</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2578,7 +2578,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="4" t="n">
-        <v>4.57</v>
+        <v>22.21</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2586,7 +2586,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="4" t="n">
-        <v>4.05</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="4" t="n">
-        <v>3.66</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2602,7 +2602,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="4" t="n">
-        <v>3.24</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2610,7 +2610,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="4" t="n">
-        <v>2.85</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="4" t="n">
-        <v>2.66</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2626,7 +2626,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="4" t="n">
-        <v>2.37</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2634,7 +2634,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="4" t="n">
-        <v>2.25</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2642,7 +2642,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="4" t="n">
-        <v>2.09</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="4" t="n">
-        <v>1.95</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -2658,7 +2658,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="4" t="n">
-        <v>1.81</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -2666,7 +2666,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="4" t="n">
-        <v>1.64</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2674,7 +2674,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="4" t="n">
-        <v>1.51</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2682,7 +2682,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="4" t="n">
-        <v>1.41</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2690,7 +2690,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="4" t="n">
-        <v>1.29</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2698,7 +2698,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="4" t="n">
-        <v>1.18</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="4" t="n">
-        <v>1.08</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -2714,7 +2714,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="4" t="n">
-        <v>1.01</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -2722,7 +2722,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="4" t="n">
-        <v>0.91</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -2730,7 +2730,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -2738,7 +2738,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="4" t="n">
-        <v>0.95</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -2746,7 +2746,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="4" t="n">
-        <v>0.99</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2754,7 +2754,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="4" t="n">
-        <v>1.08</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="4" t="n">
-        <v>1.2</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -2770,7 +2770,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="4" t="n">
-        <v>1.32</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -2778,7 +2778,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="4" t="n">
-        <v>1.43</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -2786,7 +2786,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="4" t="n">
-        <v>1.6</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="4" t="n">
-        <v>1.81</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2802,7 +2802,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="4" t="n">
-        <v>2.15</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -2810,7 +2810,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="4" t="n">
-        <v>2.49</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="4" t="n">
-        <v>2.67</v>
+        <v>19.77</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -2826,7 +2826,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="n">
-        <v>2.99</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -2834,7 +2834,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="4" t="n">
-        <v>3.27</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -2842,7 +2842,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="4" t="n">
-        <v>3.62</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="4" t="n">
-        <v>3.98</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -2858,7 +2858,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="4" t="n">
-        <v>4.13</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -2866,7 +2866,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="4" t="n">
-        <v>4.42</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="4" t="n">
-        <v>4.65</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -2882,7 +2882,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="4" t="n">
-        <v>4.81</v>
+        <v>46.91</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -2890,7 +2890,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="4" t="n">
-        <v>5.15</v>
+        <v>58.39</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="4" t="n">
-        <v>5.84</v>
+        <v>68.76000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -2906,7 +2906,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="4" t="n">
-        <v>6.49</v>
+        <v>77.45999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -2914,7 +2914,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="4" t="n">
-        <v>6.77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -2922,7 +2922,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="4" t="n">
-        <v>6.78</v>
+        <v>93.43000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="4" t="n">
-        <v>6.72</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -2938,7 +2938,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="4" t="n">
-        <v>6.91</v>
+        <v>96.48</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -2946,7 +2946,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="4" t="n">
-        <v>7.08</v>
+        <v>97.97</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -2954,7 +2954,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="4" t="n">
-        <v>7.4</v>
+        <v>95.36</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="4" t="n">
-        <v>7.49</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -2970,7 +2970,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="4" t="n">
-        <v>7.49</v>
+        <v>78.45</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -2978,7 +2978,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="4" t="n">
-        <v>7.25</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -2986,7 +2986,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="4" t="n">
-        <v>6.59</v>
+        <v>64.41</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -2994,7 +2994,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="4" t="n">
-        <v>6.34</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3002,7 +3002,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="4" t="n">
-        <v>5.96</v>
+        <v>51.47</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="4" t="n">
-        <v>5.57</v>
+        <v>47.68</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3018,7 +3018,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="4" t="n">
-        <v>5.11</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3026,7 +3026,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="4" t="n">
-        <v>4.54</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3034,7 +3034,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="4" t="n">
-        <v>3.91</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="4" t="n">
-        <v>3.5</v>
+        <v>38.34</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3050,7 +3050,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="4" t="n">
-        <v>2.99</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3058,7 +3058,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="4" t="n">
-        <v>2.59</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3066,7 +3066,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="4" t="n">
-        <v>2.49</v>
+        <v>34.59</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3074,7 +3074,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="4" t="n">
-        <v>2.33</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3082,7 +3082,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="4" t="n">
-        <v>2.47</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3090,7 +3090,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="4" t="n">
-        <v>2.66</v>
+        <v>30.57</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="4" t="n">
-        <v>2.83</v>
+        <v>29.22</v>
       </c>
     </row>
   </sheetData>

--- a/TestWebApp/the_site/results.xlsx
+++ b/TestWebApp/the_site/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Main" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +24,7 @@
     <t>Company A - Share Value</t>
   </si>
   <si>
-    <t>2019-02-26 16:00:01</t>
+    <t>2019-02-27 10:46:19</t>
   </si>
   <si>
     <t>2019-01-31</t>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>191.91</v>
+        <v>742.17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>192</v>
+        <v>721.58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>194.36</v>
+        <v>704.89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>192.63</v>
+        <v>699.62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>187.75</v>
+        <v>697.84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>181.95</v>
+        <v>689.1900000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1202,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>176.09</v>
+        <v>671.87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>171.6</v>
+        <v>660.61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>169.7</v>
+        <v>647.23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>165.81</v>
+        <v>636.0700000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1234,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>163.66</v>
+        <v>630.8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>162.19</v>
+        <v>627.21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1250,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>158.85</v>
+        <v>630.36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1258,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>156.5</v>
+        <v>626.28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1266,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>153.27</v>
+        <v>628.63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>148.98</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>143.57</v>
+        <v>652.77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1290,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>139.18</v>
+        <v>671.26</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>134.05</v>
+        <v>692.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>130.41</v>
+        <v>714.47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1314,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>126.54</v>
+        <v>731.8099999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1322,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>121.66</v>
+        <v>752.8099999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1330,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>116.7</v>
+        <v>762.76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>112.23</v>
+        <v>766.6799999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>107.84</v>
+        <v>769.6799999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>106.01</v>
+        <v>776.21</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1362,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>104.2</v>
+        <v>774.87</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1370,7 +1370,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>102.81</v>
+        <v>773.3099999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1378,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>101.72</v>
+        <v>772.35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1386,7 +1386,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>102.33</v>
+        <v>774.62</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1394,7 +1394,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>103.7</v>
+        <v>778.59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1402,7 +1402,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>104.17</v>
+        <v>770.26</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>105.64</v>
+        <v>761.86</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1418,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>107.88</v>
+        <v>756.09</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>111.18</v>
+        <v>746.17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1434,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>113.42</v>
+        <v>734.48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1442,7 +1442,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>116.27</v>
+        <v>723.76</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>119.1</v>
+        <v>715.96</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>121.76</v>
+        <v>706.9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>121.69</v>
+        <v>688.35</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1474,7 +1474,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>120.85</v>
+        <v>672.36</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>121.82</v>
+        <v>656.67</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1490,7 +1490,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>121.62</v>
+        <v>641.08</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1498,7 +1498,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>119.53</v>
+        <v>621.84</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>117.15</v>
+        <v>608.23</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>113.52</v>
+        <v>592.03</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>110.26</v>
+        <v>578.23</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>161.18</v>
+        <v>562.78</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>207.45</v>
+        <v>551.45</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1546,7 +1546,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>249.42</v>
+        <v>545.39</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1554,7 +1554,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>290.62</v>
+        <v>536.65</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1562,7 +1562,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="n">
-        <v>329</v>
+        <v>528.75</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1570,7 +1570,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="n">
-        <v>373.75</v>
+        <v>520.91</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="n">
-        <v>419.49</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1586,7 +1586,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="n">
-        <v>461.59</v>
+        <v>506.13</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1594,7 +1594,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>499.94</v>
+        <v>496.81</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1602,7 +1602,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="n">
-        <v>539.9</v>
+        <v>485.26</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="n">
-        <v>522.08</v>
+        <v>476.76</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="n">
-        <v>503.15</v>
+        <v>466.3</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1626,7 +1626,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="n">
-        <v>494.45</v>
+        <v>453.14</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1634,7 +1634,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4" t="n">
-        <v>486.55</v>
+        <v>440.4</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1642,7 +1642,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="n">
-        <v>480.48</v>
+        <v>430.31</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1650,7 +1650,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="n">
-        <v>468.71</v>
+        <v>420.45</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1658,7 +1658,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="n">
-        <v>458.82</v>
+        <v>411.46</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="n">
-        <v>461.8</v>
+        <v>403.56</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1674,7 +1674,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="n">
-        <v>473.32</v>
+        <v>399.77</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1682,7 +1682,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="n">
-        <v>483.83</v>
+        <v>395.23</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1690,7 +1690,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="n">
-        <v>505.41</v>
+        <v>386.7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1698,7 +1698,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>531.72</v>
+        <v>380.03</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1706,7 +1706,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="n">
-        <v>548.23</v>
+        <v>376.95</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1714,7 +1714,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>562.26</v>
+        <v>372.66</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="n">
-        <v>574.99</v>
+        <v>371.12</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1730,7 +1730,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>589.6799999999999</v>
+        <v>372.54</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1738,7 +1738,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4" t="n">
-        <v>603.95</v>
+        <v>373.21</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1746,7 +1746,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="n">
-        <v>603.38</v>
+        <v>375.02</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1754,7 +1754,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>589.86</v>
+        <v>371.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>570.98</v>
+        <v>366.68</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1770,7 +1770,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="4" t="n">
-        <v>542.08</v>
+        <v>363.34</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="n">
-        <v>515.25</v>
+        <v>359.43</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1786,7 +1786,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="4" t="n">
-        <v>491.69</v>
+        <v>353.51</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1794,7 +1794,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="n">
-        <v>471.8</v>
+        <v>347.32</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1802,7 +1802,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="n">
-        <v>454.66</v>
+        <v>337.96</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1810,7 +1810,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="n">
-        <v>429.77</v>
+        <v>328.16</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1818,7 +1818,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="4" t="n">
-        <v>404.47</v>
+        <v>319.83</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="n">
-        <v>384.63</v>
+        <v>310.64</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="n">
-        <v>373.9</v>
+        <v>303.18</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1842,7 +1842,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="n">
-        <v>368.51</v>
+        <v>296.97</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1850,7 +1850,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="n">
-        <v>364.38</v>
+        <v>289.52</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1858,7 +1858,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="4" t="n">
-        <v>357.2</v>
+        <v>285.01</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1866,7 +1866,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="4" t="n">
-        <v>350.69</v>
+        <v>279.36</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="n">
-        <v>342.33</v>
+        <v>272.7</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1882,7 +1882,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="n">
-        <v>330.93</v>
+        <v>266.99</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="n">
-        <v>322.08</v>
+        <v>258.65</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1898,7 +1898,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="n">
-        <v>313.24</v>
+        <v>250.61</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1906,7 +1906,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="n">
-        <v>303.7</v>
+        <v>241.59</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1914,7 +1914,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="4" t="n">
-        <v>294.56</v>
+        <v>233.3</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1922,7 +1922,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="4" t="n">
-        <v>285.39</v>
+        <v>225.19</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>275.01</v>
+        <v>217.11</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1938,7 +1938,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="4" t="n">
-        <v>263.02</v>
+        <v>206.31</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="4" t="n">
-        <v>250.73</v>
+        <v>195.66</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="n">
-        <v>241.85</v>
+        <v>187.79</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1962,7 +1962,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="4" t="n">
-        <v>233.7</v>
+        <v>179.65</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1970,7 +1970,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="4" t="n">
-        <v>227.94</v>
+        <v>172.03</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1978,7 +1978,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="4" t="n">
-        <v>220.43</v>
+        <v>165.26</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="n">
-        <v>211.79</v>
+        <v>160.59</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="n">
-        <v>202.35</v>
+        <v>156.73</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2002,7 +2002,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>190.31</v>
+        <v>153.64</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2010,7 +2010,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="n">
-        <v>180.21</v>
+        <v>151.65</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2018,7 +2018,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>172.22</v>
+        <v>151.79</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2026,7 +2026,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="4" t="n">
-        <v>163.39</v>
+        <v>152.51</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2034,7 +2034,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="4" t="n">
-        <v>150.98</v>
+        <v>150.73</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="n">
-        <v>139.66</v>
+        <v>149.08</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2050,7 +2050,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="n">
-        <v>129.27</v>
+        <v>149.39</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="n">
-        <v>119.86</v>
+        <v>145.57</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2066,7 +2066,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="n">
-        <v>113.66</v>
+        <v>143.51</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2074,7 +2074,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="n">
-        <v>108.33</v>
+        <v>140.49</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2082,7 +2082,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="n">
-        <v>111.22</v>
+        <v>139.05</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2090,7 +2090,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="n">
-        <v>113.57</v>
+        <v>136.7</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2098,7 +2098,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="n">
-        <v>117.39</v>
+        <v>131.88</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2106,7 +2106,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="n">
-        <v>125.83</v>
+        <v>128.24</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="n">
-        <v>134.4</v>
+        <v>126.26</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2122,7 +2122,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="n">
-        <v>140.12</v>
+        <v>124.73</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2130,7 +2130,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="n">
-        <v>143.98</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="4" t="n">
-        <v>148.47</v>
+        <v>123.85</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2146,7 +2146,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="4" t="n">
-        <v>157.81</v>
+        <v>123.24</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2154,7 +2154,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="4" t="n">
-        <v>164.8</v>
+        <v>122.13</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2162,7 +2162,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="4" t="n">
-        <v>166.42</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="4" t="n">
-        <v>165.89</v>
+        <v>119.05</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2178,7 +2178,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="4" t="n">
-        <v>163.48</v>
+        <v>119.31</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2186,7 +2186,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="4" t="n">
-        <v>157.99</v>
+        <v>119.39</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2194,7 +2194,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="4" t="n">
-        <v>152.6</v>
+        <v>120.99</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2202,7 +2202,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="4" t="n">
-        <v>150.08</v>
+        <v>122.24</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="4" t="n">
-        <v>147.59</v>
+        <v>123.89</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2218,7 +2218,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="4" t="n">
-        <v>143.38</v>
+        <v>124.73</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2226,7 +2226,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="4" t="n">
-        <v>131.86</v>
+        <v>125.22</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2234,7 +2234,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="4" t="n">
-        <v>122.3</v>
+        <v>126.68</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2242,7 +2242,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="4" t="n">
-        <v>112.06</v>
+        <v>125.98</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2250,7 +2250,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="4" t="n">
-        <v>105.78</v>
+        <v>125.75</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2258,7 +2258,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>124.83</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2266,7 +2266,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="4" t="n">
-        <v>94.04000000000001</v>
+        <v>122.45</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2274,7 +2274,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="4" t="n">
-        <v>88.79000000000001</v>
+        <v>117.72</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2282,7 +2282,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="4" t="n">
-        <v>83.40000000000001</v>
+        <v>113.55</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2290,7 +2290,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="4" t="n">
-        <v>79.19</v>
+        <v>109.08</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2298,7 +2298,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="4" t="n">
-        <v>75.76000000000001</v>
+        <v>105.26</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2306,7 +2306,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="4" t="n">
-        <v>74.44</v>
+        <v>102.16</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2314,7 +2314,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="4" t="n">
-        <v>72.18000000000001</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="4" t="n">
-        <v>70.45</v>
+        <v>97.38</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2330,7 +2330,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="4" t="n">
-        <v>68.77</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2338,7 +2338,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="4" t="n">
-        <v>67.89</v>
+        <v>93.81999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2346,7 +2346,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="4" t="n">
-        <v>67.28</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2354,7 +2354,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="4" t="n">
-        <v>66.16</v>
+        <v>91.47</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2362,7 +2362,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="4" t="n">
-        <v>64.84999999999999</v>
+        <v>91.04000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2370,7 +2370,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="4" t="n">
-        <v>63.8</v>
+        <v>91.58</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2378,7 +2378,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="4" t="n">
-        <v>62.07</v>
+        <v>92.27</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2386,7 +2386,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="4" t="n">
-        <v>58.68</v>
+        <v>92.18000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2394,7 +2394,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="4" t="n">
-        <v>56.3</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2402,7 +2402,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="4" t="n">
-        <v>53.02</v>
+        <v>90.13</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2410,7 +2410,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="4" t="n">
-        <v>49.73</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2418,7 +2418,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="4" t="n">
-        <v>47</v>
+        <v>89.39</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2426,7 +2426,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="4" t="n">
-        <v>47.81</v>
+        <v>89.42</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2434,7 +2434,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="4" t="n">
-        <v>48.56</v>
+        <v>90.47</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2442,7 +2442,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="4" t="n">
-        <v>49.92</v>
+        <v>90.70999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="4" t="n">
-        <v>50.47</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="4" t="n">
-        <v>50.13</v>
+        <v>87.48999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2466,7 +2466,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="4" t="n">
-        <v>49.88</v>
+        <v>85.63</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2474,7 +2474,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="4" t="n">
-        <v>49</v>
+        <v>84.31</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2482,7 +2482,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="4" t="n">
-        <v>48.59</v>
+        <v>84.02</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2490,7 +2490,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="4" t="n">
-        <v>47.16</v>
+        <v>84.14</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2498,7 +2498,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="4" t="n">
-        <v>45.26</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="4" t="n">
-        <v>40.25</v>
+        <v>82.84</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2514,7 +2514,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="4" t="n">
-        <v>36.18</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2522,7 +2522,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="4" t="n">
-        <v>31.64</v>
+        <v>82.59</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2530,7 +2530,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="4" t="n">
-        <v>28.55</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2538,7 +2538,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="4" t="n">
-        <v>26.74</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2546,7 +2546,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="4" t="n">
-        <v>25.59</v>
+        <v>86.95</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2554,7 +2554,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="4" t="n">
-        <v>24.55</v>
+        <v>88.18000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2562,7 +2562,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="4" t="n">
-        <v>23.61</v>
+        <v>89.42</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2570,7 +2570,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="4" t="n">
-        <v>22.93</v>
+        <v>89.06999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2578,7 +2578,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="4" t="n">
-        <v>22.21</v>
+        <v>87.91</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2586,7 +2586,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="4" t="n">
-        <v>21.34</v>
+        <v>87.70999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="4" t="n">
-        <v>20.35</v>
+        <v>86.79000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2602,7 +2602,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="4" t="n">
-        <v>19.52</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2610,7 +2610,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="4" t="n">
-        <v>18.87</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="4" t="n">
-        <v>18.21</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2626,7 +2626,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="4" t="n">
-        <v>17.36</v>
+        <v>77.86</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2634,7 +2634,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="4" t="n">
-        <v>16.88</v>
+        <v>77.17</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2642,7 +2642,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="4" t="n">
-        <v>16.2</v>
+        <v>76.48</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="4" t="n">
-        <v>15.56</v>
+        <v>76.08</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -2658,7 +2658,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="4" t="n">
-        <v>15.12</v>
+        <v>75.69</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -2666,7 +2666,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="4" t="n">
-        <v>14.83</v>
+        <v>74.56</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2674,7 +2674,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="4" t="n">
-        <v>15.17</v>
+        <v>74.22</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2682,7 +2682,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="4" t="n">
-        <v>16.09</v>
+        <v>75.52</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2690,7 +2690,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="4" t="n">
-        <v>17.02</v>
+        <v>76.48999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2698,7 +2698,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="4" t="n">
-        <v>18.05</v>
+        <v>76.77</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="4" t="n">
-        <v>18.8</v>
+        <v>76.28</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -2714,7 +2714,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="4" t="n">
-        <v>19.71</v>
+        <v>74.84999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -2722,7 +2722,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="4" t="n">
-        <v>20.32</v>
+        <v>73.47</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -2730,7 +2730,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="4" t="n">
-        <v>20.97</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -2738,7 +2738,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="4" t="n">
-        <v>21.29</v>
+        <v>70.89</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -2746,7 +2746,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="4" t="n">
-        <v>21.32</v>
+        <v>68.84</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2754,7 +2754,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="4" t="n">
-        <v>21.4</v>
+        <v>65.79000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="4" t="n">
-        <v>20.96</v>
+        <v>62.34</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -2770,7 +2770,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="4" t="n">
-        <v>20.9</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -2778,7 +2778,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="4" t="n">
-        <v>20.44</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -2786,7 +2786,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="4" t="n">
-        <v>20.79</v>
+        <v>51.44</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="4" t="n">
-        <v>20.5</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2802,7 +2802,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="4" t="n">
-        <v>20.08</v>
+        <v>42.72</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -2810,7 +2810,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="4" t="n">
-        <v>20.04</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="4" t="n">
-        <v>19.77</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -2826,7 +2826,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="n">
-        <v>19.92</v>
+        <v>32.93</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -2834,7 +2834,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="4" t="n">
-        <v>20.01</v>
+        <v>30.89</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -2842,7 +2842,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="4" t="n">
-        <v>20.78</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="4" t="n">
-        <v>24.55</v>
+        <v>26.93</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -2858,7 +2858,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="4" t="n">
-        <v>27.56</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -2866,7 +2866,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="4" t="n">
-        <v>30.23</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="4" t="n">
-        <v>36.2</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -2882,7 +2882,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="4" t="n">
-        <v>46.91</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -2890,7 +2890,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="4" t="n">
-        <v>58.39</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="4" t="n">
-        <v>68.76000000000001</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -2906,7 +2906,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="4" t="n">
-        <v>77.45999999999999</v>
+        <v>24.61</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -2914,7 +2914,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="4" t="n">
-        <v>86</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -2922,7 +2922,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="4" t="n">
-        <v>93.43000000000001</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="4" t="n">
-        <v>95.3</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -2938,7 +2938,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="4" t="n">
-        <v>96.48</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -2946,7 +2946,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="4" t="n">
-        <v>97.97</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -2954,7 +2954,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="4" t="n">
-        <v>95.36</v>
+        <v>26.43</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="4" t="n">
-        <v>87.5</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -2970,7 +2970,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="4" t="n">
-        <v>78.45</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -2978,7 +2978,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="4" t="n">
-        <v>71.2</v>
+        <v>27.71</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -2986,7 +2986,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="4" t="n">
-        <v>64.41</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -2994,7 +2994,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="4" t="n">
-        <v>57.4</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3002,7 +3002,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="4" t="n">
-        <v>51.47</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="4" t="n">
-        <v>47.68</v>
+        <v>29.67</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3018,7 +3018,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="4" t="n">
-        <v>44.67</v>
+        <v>29.89</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3026,7 +3026,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="4" t="n">
-        <v>41.72</v>
+        <v>30.14</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3034,7 +3034,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="4" t="n">
-        <v>39.83</v>
+        <v>30.14</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="4" t="n">
-        <v>38.34</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3050,7 +3050,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="4" t="n">
-        <v>37.26</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3058,7 +3058,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="4" t="n">
-        <v>35.54</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3066,7 +3066,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="4" t="n">
-        <v>34.59</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3074,7 +3074,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="4" t="n">
-        <v>33.86</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3082,7 +3082,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="4" t="n">
-        <v>32.43</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3090,7 +3090,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="4" t="n">
-        <v>30.57</v>
+        <v>30.12</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="4" t="n">
-        <v>29.22</v>
+        <v>29.88</v>
       </c>
     </row>
   </sheetData>

--- a/TestWebApp/the_site/results.xlsx
+++ b/TestWebApp/the_site/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>Company A - Date</t>
   </si>
@@ -370,6 +370,354 @@
   </si>
   <si>
     <t>2009-07-31</t>
+  </si>
+  <si>
+    <t>2009-06-30</t>
+  </si>
+  <si>
+    <t>2009-05-29</t>
+  </si>
+  <si>
+    <t>2009-04-30</t>
+  </si>
+  <si>
+    <t>2009-03-31</t>
+  </si>
+  <si>
+    <t>2009-02-27</t>
+  </si>
+  <si>
+    <t>2009-01-30</t>
+  </si>
+  <si>
+    <t>2008-12-31</t>
+  </si>
+  <si>
+    <t>2008-11-28</t>
+  </si>
+  <si>
+    <t>2008-10-31</t>
+  </si>
+  <si>
+    <t>2008-09-30</t>
+  </si>
+  <si>
+    <t>2008-08-29</t>
+  </si>
+  <si>
+    <t>2008-07-31</t>
+  </si>
+  <si>
+    <t>2008-06-30</t>
+  </si>
+  <si>
+    <t>2008-05-30</t>
+  </si>
+  <si>
+    <t>2008-04-30</t>
+  </si>
+  <si>
+    <t>2008-03-31</t>
+  </si>
+  <si>
+    <t>2008-02-29</t>
+  </si>
+  <si>
+    <t>2008-01-31</t>
+  </si>
+  <si>
+    <t>2007-12-31</t>
+  </si>
+  <si>
+    <t>2007-11-30</t>
+  </si>
+  <si>
+    <t>2007-10-31</t>
+  </si>
+  <si>
+    <t>2007-09-28</t>
+  </si>
+  <si>
+    <t>2007-08-31</t>
+  </si>
+  <si>
+    <t>2007-07-31</t>
+  </si>
+  <si>
+    <t>2007-06-29</t>
+  </si>
+  <si>
+    <t>2007-05-31</t>
+  </si>
+  <si>
+    <t>2007-04-30</t>
+  </si>
+  <si>
+    <t>2007-03-30</t>
+  </si>
+  <si>
+    <t>2007-02-28</t>
+  </si>
+  <si>
+    <t>2007-01-31</t>
+  </si>
+  <si>
+    <t>2006-12-29</t>
+  </si>
+  <si>
+    <t>2006-11-30</t>
+  </si>
+  <si>
+    <t>2006-10-31</t>
+  </si>
+  <si>
+    <t>2006-09-29</t>
+  </si>
+  <si>
+    <t>2006-08-31</t>
+  </si>
+  <si>
+    <t>2006-07-31</t>
+  </si>
+  <si>
+    <t>2006-06-30</t>
+  </si>
+  <si>
+    <t>2006-05-31</t>
+  </si>
+  <si>
+    <t>2006-04-28</t>
+  </si>
+  <si>
+    <t>2006-03-31</t>
+  </si>
+  <si>
+    <t>2006-02-28</t>
+  </si>
+  <si>
+    <t>2006-01-31</t>
+  </si>
+  <si>
+    <t>2005-12-30</t>
+  </si>
+  <si>
+    <t>2005-11-30</t>
+  </si>
+  <si>
+    <t>2005-10-31</t>
+  </si>
+  <si>
+    <t>2005-09-30</t>
+  </si>
+  <si>
+    <t>2005-08-31</t>
+  </si>
+  <si>
+    <t>2005-07-29</t>
+  </si>
+  <si>
+    <t>2005-06-30</t>
+  </si>
+  <si>
+    <t>2005-05-31</t>
+  </si>
+  <si>
+    <t>2005-04-29</t>
+  </si>
+  <si>
+    <t>2005-03-31</t>
+  </si>
+  <si>
+    <t>2005-02-28</t>
+  </si>
+  <si>
+    <t>2005-01-31</t>
+  </si>
+  <si>
+    <t>2004-12-31</t>
+  </si>
+  <si>
+    <t>2004-11-30</t>
+  </si>
+  <si>
+    <t>2004-10-29</t>
+  </si>
+  <si>
+    <t>2004-09-30</t>
+  </si>
+  <si>
+    <t>2004-08-31</t>
+  </si>
+  <si>
+    <t>2004-07-30</t>
+  </si>
+  <si>
+    <t>2004-06-30</t>
+  </si>
+  <si>
+    <t>2004-05-28</t>
+  </si>
+  <si>
+    <t>2004-04-30</t>
+  </si>
+  <si>
+    <t>2004-03-31</t>
+  </si>
+  <si>
+    <t>2004-02-27</t>
+  </si>
+  <si>
+    <t>2004-01-30</t>
+  </si>
+  <si>
+    <t>2003-12-31</t>
+  </si>
+  <si>
+    <t>2003-11-28</t>
+  </si>
+  <si>
+    <t>2003-10-31</t>
+  </si>
+  <si>
+    <t>2003-09-30</t>
+  </si>
+  <si>
+    <t>2003-08-29</t>
+  </si>
+  <si>
+    <t>2003-07-31</t>
+  </si>
+  <si>
+    <t>2003-06-30</t>
+  </si>
+  <si>
+    <t>2003-05-30</t>
+  </si>
+  <si>
+    <t>2003-04-30</t>
+  </si>
+  <si>
+    <t>2003-03-31</t>
+  </si>
+  <si>
+    <t>2003-02-28</t>
+  </si>
+  <si>
+    <t>2003-01-31</t>
+  </si>
+  <si>
+    <t>2002-12-31</t>
+  </si>
+  <si>
+    <t>2002-11-29</t>
+  </si>
+  <si>
+    <t>2002-10-31</t>
+  </si>
+  <si>
+    <t>2002-09-30</t>
+  </si>
+  <si>
+    <t>2002-08-30</t>
+  </si>
+  <si>
+    <t>2002-07-31</t>
+  </si>
+  <si>
+    <t>2002-06-28</t>
+  </si>
+  <si>
+    <t>2002-05-31</t>
+  </si>
+  <si>
+    <t>2002-04-30</t>
+  </si>
+  <si>
+    <t>2002-03-28</t>
+  </si>
+  <si>
+    <t>2002-02-28</t>
+  </si>
+  <si>
+    <t>2002-01-31</t>
+  </si>
+  <si>
+    <t>2001-12-31</t>
+  </si>
+  <si>
+    <t>2001-11-30</t>
+  </si>
+  <si>
+    <t>2001-10-31</t>
+  </si>
+  <si>
+    <t>2001-09-28</t>
+  </si>
+  <si>
+    <t>2001-08-31</t>
+  </si>
+  <si>
+    <t>2001-07-31</t>
+  </si>
+  <si>
+    <t>2001-06-29</t>
+  </si>
+  <si>
+    <t>2001-05-31</t>
+  </si>
+  <si>
+    <t>2001-04-30</t>
+  </si>
+  <si>
+    <t>2001-03-30</t>
+  </si>
+  <si>
+    <t>2001-02-28</t>
+  </si>
+  <si>
+    <t>2001-01-31</t>
+  </si>
+  <si>
+    <t>2000-12-29</t>
+  </si>
+  <si>
+    <t>2000-11-30</t>
+  </si>
+  <si>
+    <t>2000-10-31</t>
+  </si>
+  <si>
+    <t>2000-09-29</t>
+  </si>
+  <si>
+    <t>2000-08-31</t>
+  </si>
+  <si>
+    <t>2000-07-31</t>
+  </si>
+  <si>
+    <t>2000-06-30</t>
+  </si>
+  <si>
+    <t>2000-05-31</t>
+  </si>
+  <si>
+    <t>2000-04-28</t>
+  </si>
+  <si>
+    <t>2000-03-31</t>
+  </si>
+  <si>
+    <t>2000-02-29</t>
+  </si>
+  <si>
+    <t>2000-01-31</t>
+  </si>
+  <si>
+    <t>1999-12-31</t>
+  </si>
+  <si>
+    <t>1999-11-30</t>
   </si>
 </sst>
 </file>
@@ -741,7 +1089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>25.43</v>
+        <v>218.31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -778,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.73</v>
+        <v>226.74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -786,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.75</v>
+        <v>237.87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -794,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.32</v>
+        <v>244.46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -802,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23.53</v>
+        <v>242.81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -810,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>22.37</v>
+        <v>234.32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -818,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.6</v>
+        <v>227.24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -826,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.19</v>
+        <v>220.71</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -834,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.75</v>
+        <v>214.29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -842,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>21.09</v>
+        <v>205.11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -850,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>21.37</v>
+        <v>197.15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -858,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>22</v>
+        <v>188.78</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -866,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>22.51</v>
+        <v>175.06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -874,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>22.98</v>
+        <v>162.1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -882,7 +1230,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>23.66</v>
+        <v>152.91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -890,7 +1238,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>24.62</v>
+        <v>144.03</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -898,7 +1246,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>25.54</v>
+        <v>133.54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -906,7 +1254,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>26.15</v>
+        <v>124.67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -914,7 +1262,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>26.55</v>
+        <v>114.81</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -922,7 +1270,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>26.84</v>
+        <v>105.45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -930,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>26.79</v>
+        <v>97.09</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -938,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>26.66</v>
+        <v>88.31999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -946,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>26.24</v>
+        <v>82.52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -954,7 +1302,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>26.07</v>
+        <v>76.28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -962,7 +1310,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>25.93</v>
+        <v>69.48999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -970,7 +1318,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>25.83</v>
+        <v>61.97</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -978,7 +1326,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>25.61</v>
+        <v>54.67</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -986,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>25.66</v>
+        <v>48.39</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -994,7 +1342,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>25.64</v>
+        <v>44.48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1002,7 +1350,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>25.98</v>
+        <v>40.83</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1010,7 +1358,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>26.25</v>
+        <v>37.53</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1018,7 +1366,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>26.23</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1026,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>26.34</v>
+        <v>31.77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1034,7 +1382,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>26.69</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1042,7 +1390,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>27.14</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1050,7 +1398,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>27.61</v>
+        <v>26.29</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1058,7 +1406,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>28.15</v>
+        <v>25.39</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1066,7 +1414,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>28.41</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1074,7 +1422,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>29</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1082,7 +1430,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>28.84</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1090,7 +1438,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>29.45</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1098,7 +1446,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>30.41</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1106,7 +1454,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>31.41</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1114,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>32.11</v>
+        <v>20.71</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1122,7 +1470,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>33.29</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1130,7 +1478,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>38.44</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1138,7 +1486,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>42.69</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1146,7 +1494,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>47.24</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1154,7 +1502,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>51.23</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1162,7 +1510,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>56.17</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1170,7 +1518,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>60.46</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1178,7 +1526,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="n">
-        <v>64.45999999999999</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1186,7 +1534,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="n">
-        <v>69.28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1194,7 +1542,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="n">
-        <v>73.67</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1202,7 +1550,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="n">
-        <v>77.59</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1210,7 +1558,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>77.14</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,7 +1566,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="n">
-        <v>77.05</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1226,7 +1574,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="n">
-        <v>76.81999999999999</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1234,7 +1582,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="n">
-        <v>76.83</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1242,7 +1590,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="n">
-        <v>76.12</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1250,7 +1598,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4" t="n">
-        <v>75.58</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1258,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="n">
-        <v>75.18000000000001</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1266,7 +1614,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="n">
-        <v>73.23</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1274,7 +1622,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="n">
-        <v>71.51000000000001</v>
+        <v>14.03</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1282,7 +1630,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="n">
-        <v>69.29000000000001</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1290,7 +1638,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="n">
-        <v>67.06999999999999</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1298,7 +1646,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="n">
-        <v>65.36</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1306,7 +1654,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="n">
-        <v>63.71</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1314,7 +1662,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>61.81</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1322,7 +1670,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="n">
-        <v>59.45</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1330,7 +1678,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>57.32</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1338,7 +1686,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="n">
-        <v>54.98</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1346,7 +1694,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>53.58</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1354,7 +1702,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4" t="n">
-        <v>51.88</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1362,7 +1710,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="n">
-        <v>50.22</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1370,7 +1718,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>48.5</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1378,7 +1726,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>46.84</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1386,7 +1734,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="4" t="n">
-        <v>44.98</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1394,7 +1742,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="n">
-        <v>43.63</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1402,7 +1750,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="4" t="n">
-        <v>42.46</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1410,7 +1758,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="n">
-        <v>41.41</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1418,7 +1766,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="n">
-        <v>40.4</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1426,7 +1774,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="n">
-        <v>39.1</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1434,7 +1782,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="4" t="n">
-        <v>38.26</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1442,7 +1790,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="n">
-        <v>37.87</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1450,7 +1798,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="n">
-        <v>37.47</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1458,7 +1806,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="n">
-        <v>37.46</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1466,7 +1814,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="n">
-        <v>37.09</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1474,7 +1822,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="4" t="n">
-        <v>36.96</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1482,7 +1830,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="4" t="n">
-        <v>37.04</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1490,7 +1838,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="n">
-        <v>37</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1498,7 +1846,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="n">
-        <v>37.19</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1506,7 +1854,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="n">
-        <v>36.94</v>
+        <v>16.87</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1514,7 +1862,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="n">
-        <v>36.57</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1522,7 +1870,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="n">
-        <v>35.7</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1530,7 +1878,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="4" t="n">
-        <v>35.32</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1538,7 +1886,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="4" t="n">
-        <v>34.88</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1546,7 +1894,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>34.43</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1554,7 +1902,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="4" t="n">
-        <v>33.41</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1562,7 +1910,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="4" t="n">
-        <v>32.48</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1570,7 +1918,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="n">
-        <v>31.24</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1578,7 +1926,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="4" t="n">
-        <v>30.25</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1586,7 +1934,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="4" t="n">
-        <v>29.23</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1594,7 +1942,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="4" t="n">
-        <v>28.38</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1602,7 +1950,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="n">
-        <v>27.65</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1610,7 +1958,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="n">
-        <v>26.76</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1618,7 +1966,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>25.44</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1626,7 +1974,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="n">
-        <v>24.58</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1634,7 +1982,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>23.67</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1642,7 +1990,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="4" t="n">
-        <v>22.46</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1650,7 +1998,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="4" t="n">
-        <v>21.23</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1658,7 +2006,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="n">
-        <v>19.82</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1666,7 +2014,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="n">
-        <v>18.76</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1674,7 +2022,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="n">
-        <v>17.42</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1682,7 +2030,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="n">
-        <v>16.39</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1690,7 +2038,935 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="n">
-        <v>15.46</v>
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="4" t="n">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="4" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="4" t="n">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="4" t="n">
+        <v>24.24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>30.08</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="4" t="n">
+        <v>32.12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>34.23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="4" t="n">
+        <v>35.69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>36.91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="4" t="n">
+        <v>37.32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="4" t="n">
+        <v>36.78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="4" t="n">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="4" t="n">
+        <v>33.73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="4" t="n">
+        <v>32.41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="4" t="n">
+        <v>31.09</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="4" t="n">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="4" t="n">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="4" t="n">
+        <v>29.29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="4" t="n">
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="4" t="n">
+        <v>33.03</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="4" t="n">
+        <v>33.79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="4" t="n">
+        <v>34.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="4" t="n">
+        <v>34.73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="4" t="n">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="4" t="n">
+        <v>36.45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="4" t="n">
+        <v>37.33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>37.73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="4" t="n">
+        <v>37.44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="4" t="n">
+        <v>34.36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="4" t="n">
+        <v>31.87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="4" t="n">
+        <v>29.86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="4" t="n">
+        <v>29.09</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="4" t="n">
+        <v>27.74</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="4" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="4" t="n">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="4" t="n">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="4" t="n">
+        <v>22.47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="4" t="n">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" s="4" t="n">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="4" t="n">
+        <v>19.74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="4" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="4" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" s="4" t="n">
+        <v>19.19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" s="4" t="n">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" s="4" t="n">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="4" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" s="4" t="n">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" s="4" t="n">
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="4" t="n">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" s="4" t="n">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="4" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="4" t="n">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="4" t="n">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" s="4" t="n">
+        <v>20.24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="4" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" s="4" t="n">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="4" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" s="4" t="n">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="4" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="4" t="n">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="4" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" s="4" t="n">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="4" t="n">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="4" t="n">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="4" t="n">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="4" t="n">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="4" t="n">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" s="4" t="n">
+        <v>23.61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="4" t="n">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" s="4" t="n">
+        <v>33.98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="4" t="n">
+        <v>38.54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="4" t="n">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="4" t="n">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="4" t="n">
+        <v>50.28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="4" t="n">
+        <v>55.27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="4" t="n">
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="4" t="n">
+        <v>65.18000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" s="4" t="n">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="4" t="n">
+        <v>68.28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="4" t="n">
+        <v>65.97</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="4" t="n">
+        <v>65.72</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" s="4" t="n">
+        <v>64.68000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="4" t="n">
+        <v>66.23999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" s="4" t="n">
+        <v>63.85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="4" t="n">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" s="4" t="n">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="4" t="n">
+        <v>60.47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" s="4" t="n">
+        <v>58.51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" s="4" t="n">
+        <v>63.79</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" s="4" t="n">
+        <v>68.63</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" s="4" t="n">
+        <v>71.83</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="4" t="n">
+        <v>74.94</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" s="4" t="n">
+        <v>74.34999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="4" t="n">
+        <v>73.01000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="4" t="n">
+        <v>68.17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="4" t="n">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" s="4" t="n">
+        <v>58.14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" s="4" t="n">
+        <v>54.55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="4" t="n">
+        <v>44.82</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" s="4" t="n">
+        <v>37.48</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" s="4" t="n">
+        <v>30.81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="4" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="4" t="n">
+        <v>24.65</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="4" t="n">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" s="4" t="n">
+        <v>20.61</v>
       </c>
     </row>
   </sheetData>

--- a/TestWebApp/the_site/results.xlsx
+++ b/TestWebApp/the_site/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Main" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>Company A - Date</t>
   </si>
@@ -24,7 +24,10 @@
     <t>Company A - Share Value</t>
   </si>
   <si>
-    <t>2019-02-27 16:00:01</t>
+    <t>2019-03-01 10:54:40</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
   </si>
   <si>
     <t>2019-01-31</t>
@@ -718,6 +721,42 @@
   </si>
   <si>
     <t>1999-11-30</t>
+  </si>
+  <si>
+    <t>1999-10-29</t>
+  </si>
+  <si>
+    <t>1999-09-30</t>
+  </si>
+  <si>
+    <t>1999-08-31</t>
+  </si>
+  <si>
+    <t>1999-07-30</t>
+  </si>
+  <si>
+    <t>1999-06-30</t>
+  </si>
+  <si>
+    <t>1999-05-28</t>
+  </si>
+  <si>
+    <t>1999-04-30</t>
+  </si>
+  <si>
+    <t>1999-03-31</t>
+  </si>
+  <si>
+    <t>1999-02-26</t>
+  </si>
+  <si>
+    <t>1999-01-29</t>
+  </si>
+  <si>
+    <t>1998-12-31</t>
+  </si>
+  <si>
+    <t>1998-11-30</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>218.31</v>
+        <v>46.22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1126,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>226.74</v>
+        <v>46.34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1134,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>237.87</v>
+        <v>46.74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1142,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>244.46</v>
+        <v>47.11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1150,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>242.81</v>
+        <v>47.49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1158,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>234.32</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1166,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>227.24</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1174,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>220.71</v>
+        <v>45.34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1182,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>214.29</v>
+        <v>43.82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1190,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>205.11</v>
+        <v>42.21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1198,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>197.15</v>
+        <v>41.14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1206,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>188.78</v>
+        <v>40.45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1214,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>175.06</v>
+        <v>39.67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1222,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>162.1</v>
+        <v>39.44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1230,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>152.91</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1238,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>144.03</v>
+        <v>38.52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1246,7 +1285,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>133.54</v>
+        <v>37.87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1254,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>124.67</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1262,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>114.81</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1270,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>105.45</v>
+        <v>38.06</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1278,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>97.09</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1286,7 +1325,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>88.31999999999999</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1294,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>82.52</v>
+        <v>37.28</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1302,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>76.28</v>
+        <v>36.26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1310,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>69.48999999999999</v>
+        <v>35.23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1318,7 +1357,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>61.97</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1365,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>54.67</v>
+        <v>33.02</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1334,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>48.39</v>
+        <v>31.59</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1342,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>44.48</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1350,7 +1389,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>40.83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1358,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>37.53</v>
+        <v>29.69</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1366,7 +1405,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>34.26</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1374,7 +1413,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>31.77</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1382,7 +1421,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>29.13</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1390,7 +1429,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>27.61</v>
+        <v>28.84</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1398,7 +1437,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>26.29</v>
+        <v>29.45</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1406,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>25.39</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1414,7 +1453,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>24.56</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1422,7 +1461,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>23.53</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1430,7 +1469,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>22.26</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1438,7 +1477,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>21.43</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1446,7 +1485,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>21.05</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1454,7 +1493,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>20.87</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1462,7 +1501,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>20.71</v>
+        <v>26.29</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1470,7 +1509,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>20.6</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1478,7 +1517,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>20.12</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1486,7 +1525,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>19.73</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1494,7 +1533,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>19.54</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1502,7 +1541,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>19.21</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1510,7 +1549,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>19.13</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1518,7 +1557,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>18.91</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1526,7 +1565,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="n">
-        <v>18.41</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1534,7 +1573,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="n">
-        <v>18</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1542,7 +1581,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="n">
-        <v>17.7</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1550,7 +1589,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="n">
-        <v>17.28</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1558,7 +1597,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>17.09</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1566,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="n">
-        <v>16.72</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1574,7 +1613,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="n">
-        <v>16.26</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1582,7 +1621,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="n">
-        <v>15.8</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1590,7 +1629,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="n">
-        <v>15.4</v>
+        <v>19.03</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1598,7 +1637,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4" t="n">
-        <v>14.98</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1606,7 +1645,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="n">
-        <v>14.68</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1614,7 +1653,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="n">
-        <v>14.34</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1622,7 +1661,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="n">
-        <v>14.03</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1630,7 +1669,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="n">
-        <v>13.76</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1638,7 +1677,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="n">
-        <v>13.41</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1646,7 +1685,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="n">
-        <v>13.13</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1654,7 +1693,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="n">
-        <v>13.03</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1662,7 +1701,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>12.99</v>
+        <v>17.81</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1670,7 +1709,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="n">
-        <v>12.9</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1678,7 +1717,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>12.92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1686,7 +1725,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="n">
-        <v>12.85</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1694,7 +1733,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>12.89</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1702,7 +1741,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4" t="n">
-        <v>13.19</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1710,7 +1749,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="n">
-        <v>13.45</v>
+        <v>19.01</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1718,7 +1757,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>13.74</v>
+        <v>19.49</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1726,7 +1765,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>13.96</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1734,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="4" t="n">
-        <v>14.17</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1742,7 +1781,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="n">
-        <v>14.22</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1750,7 +1789,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="4" t="n">
-        <v>14.09</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1758,7 +1797,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="n">
-        <v>14.05</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1766,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="n">
-        <v>14.25</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1774,7 +1813,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="n">
-        <v>14.55</v>
+        <v>23.09</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1782,7 +1821,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="4" t="n">
-        <v>15.01</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1790,7 +1829,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="n">
-        <v>15.53</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1798,7 +1837,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="n">
-        <v>15.91</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1806,7 +1845,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="n">
-        <v>16.75</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1814,7 +1853,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="n">
-        <v>17.61</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1822,7 +1861,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="4" t="n">
-        <v>17.73</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1830,7 +1869,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="4" t="n">
-        <v>17.89</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1838,7 +1877,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="n">
-        <v>17.75</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1846,7 +1885,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="n">
-        <v>17.52</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1854,7 +1893,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="n">
-        <v>16.87</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1862,7 +1901,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="n">
-        <v>15.81</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1870,7 +1909,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="n">
-        <v>14.79</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1878,7 +1917,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="4" t="n">
-        <v>14.22</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1886,7 +1925,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="4" t="n">
-        <v>13.53</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1894,7 +1933,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>12.86</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1902,7 +1941,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="4" t="n">
-        <v>12.93</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1910,7 +1949,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="4" t="n">
-        <v>13.09</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1918,7 +1957,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="n">
-        <v>13.73</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1926,7 +1965,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="4" t="n">
-        <v>13.86</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1934,7 +1973,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="4" t="n">
-        <v>14.11</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1942,7 +1981,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="4" t="n">
-        <v>14.67</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1950,7 +1989,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="n">
-        <v>15.1</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1958,7 +1997,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="n">
-        <v>15.12</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1966,7 +2005,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>14.68</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1974,7 +2013,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="n">
-        <v>13.99</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1982,7 +2021,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>13.51</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1990,7 +2029,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="4" t="n">
-        <v>12.94</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1998,7 +2037,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="4" t="n">
-        <v>11.88</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2006,7 +2045,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="n">
-        <v>11.36</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2014,7 +2053,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="n">
-        <v>10.97</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2022,7 +2061,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="n">
-        <v>10.19</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2030,7 +2069,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2038,7 +2077,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2046,7 +2085,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="n">
-        <v>9.51</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2054,7 +2093,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="n">
-        <v>9.57</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2062,7 +2101,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="n">
-        <v>10.28</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2070,7 +2109,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="n">
-        <v>11.78</v>
+        <v>17.27</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2078,7 +2117,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="n">
-        <v>13.06</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2086,7 +2125,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="n">
-        <v>14.32</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2094,7 +2133,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="n">
-        <v>15.64</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2102,7 +2141,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="4" t="n">
-        <v>17.38</v>
+        <v>24.22</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2110,7 +2149,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="4" t="n">
-        <v>19.9</v>
+        <v>25.97</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2118,7 +2157,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="4" t="n">
-        <v>22.04</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2126,7 +2165,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="4" t="n">
-        <v>24.24</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2134,7 +2173,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="4" t="n">
-        <v>26.79</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2142,7 +2181,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="4" t="n">
-        <v>30.08</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2150,7 +2189,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="4" t="n">
-        <v>32.12</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2158,7 +2197,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="4" t="n">
-        <v>34.23</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2166,7 +2205,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="4" t="n">
-        <v>35.69</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2174,7 +2213,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="4" t="n">
-        <v>36.91</v>
+        <v>25.24</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2182,7 +2221,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="4" t="n">
-        <v>37.32</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2190,7 +2229,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="4" t="n">
-        <v>36.94</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2198,7 +2237,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="4" t="n">
-        <v>36.78</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2206,7 +2245,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="4" t="n">
-        <v>37</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2214,7 +2253,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="4" t="n">
-        <v>37</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2222,7 +2261,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="4" t="n">
-        <v>35.3</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2230,7 +2269,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="4" t="n">
-        <v>33.73</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2238,7 +2277,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="4" t="n">
-        <v>32.41</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2246,7 +2285,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="4" t="n">
-        <v>31.09</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2254,7 +2293,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="4" t="n">
-        <v>29.92</v>
+        <v>24.71</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2262,7 +2301,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="4" t="n">
-        <v>29.38</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2270,7 +2309,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="4" t="n">
-        <v>29.29</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2278,7 +2317,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="4" t="n">
-        <v>32.03</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2286,7 +2325,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="4" t="n">
-        <v>33.03</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2294,7 +2333,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="4" t="n">
-        <v>33.79</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2302,7 +2341,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="4" t="n">
-        <v>34.03</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2310,7 +2349,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="4" t="n">
-        <v>34.73</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2318,7 +2357,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="4" t="n">
-        <v>35.19</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2326,7 +2365,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="4" t="n">
-        <v>36.45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2334,7 +2373,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="4" t="n">
-        <v>37.33</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2342,7 +2381,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="4" t="n">
-        <v>37.73</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2350,7 +2389,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="4" t="n">
-        <v>37.44</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2358,7 +2397,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="4" t="n">
-        <v>34.36</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2366,7 +2405,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="4" t="n">
-        <v>31.87</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2374,7 +2413,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="4" t="n">
-        <v>29.86</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2382,7 +2421,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="4" t="n">
-        <v>29.09</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2390,7 +2429,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="4" t="n">
-        <v>27.74</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2398,7 +2437,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="4" t="n">
-        <v>26.85</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2406,7 +2445,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="4" t="n">
-        <v>25.33</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2414,7 +2453,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="4" t="n">
-        <v>23.73</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2422,7 +2461,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="4" t="n">
-        <v>22.47</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2430,7 +2469,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="4" t="n">
-        <v>21.04</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2438,7 +2477,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="4" t="n">
-        <v>19.89</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2446,7 +2485,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="4" t="n">
-        <v>19.74</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2454,7 +2493,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="4" t="n">
-        <v>19.65</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2462,7 +2501,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="4" t="n">
-        <v>18.81</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2470,7 +2509,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="4" t="n">
-        <v>19.19</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2478,7 +2517,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="4" t="n">
-        <v>18.97</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2486,7 +2525,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="4" t="n">
-        <v>19.28</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2494,7 +2533,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="4" t="n">
-        <v>20.18</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2502,7 +2541,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="4" t="n">
-        <v>20.86</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2510,7 +2549,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="4" t="n">
-        <v>21.39</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2518,7 +2557,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="4" t="n">
-        <v>21.45</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2526,7 +2565,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="4" t="n">
-        <v>21.23</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2534,7 +2573,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="4" t="n">
-        <v>20.83</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2542,7 +2581,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="4" t="n">
-        <v>21.02</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2550,7 +2589,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="4" t="n">
-        <v>21.03</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2558,7 +2597,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="4" t="n">
-        <v>20.24</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2566,7 +2605,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="4" t="n">
-        <v>19.31</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2574,7 +2613,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="4" t="n">
-        <v>18.23</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2582,7 +2621,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="4" t="n">
-        <v>17.12</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2590,7 +2629,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="4" t="n">
-        <v>16.56</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2598,7 +2637,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="4" t="n">
-        <v>16.76</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2606,7 +2645,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="4" t="n">
-        <v>16.09</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -2614,7 +2653,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="4" t="n">
-        <v>15.04</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -2622,7 +2661,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="4" t="n">
-        <v>13.74</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -2630,7 +2669,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="4" t="n">
-        <v>12.17</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2638,7 +2677,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="4" t="n">
-        <v>12.46</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2646,7 +2685,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="4" t="n">
-        <v>14.41</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2654,7 +2693,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="4" t="n">
-        <v>16.55</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2662,7 +2701,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="4" t="n">
-        <v>19.71</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2670,7 +2709,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="4" t="n">
-        <v>23.61</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -2678,7 +2717,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="4" t="n">
-        <v>28.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -2686,7 +2725,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="4" t="n">
-        <v>33.98</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -2694,7 +2733,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="4" t="n">
-        <v>38.54</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -2702,7 +2741,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="4" t="n">
-        <v>41.92</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -2710,7 +2749,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="4" t="n">
-        <v>43.55</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2718,7 +2757,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="4" t="n">
-        <v>50.28</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -2726,7 +2765,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="4" t="n">
-        <v>55.27</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -2734,7 +2773,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="4" t="n">
-        <v>60.75</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -2742,7 +2781,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="4" t="n">
-        <v>65.18000000000001</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -2750,7 +2789,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="4" t="n">
-        <v>68.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -2758,7 +2797,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="4" t="n">
-        <v>68.28</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2766,7 +2805,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="4" t="n">
-        <v>65.97</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -2774,7 +2813,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="4" t="n">
-        <v>65.72</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -2782,7 +2821,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="4" t="n">
-        <v>64.68000000000001</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -2790,7 +2829,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="n">
-        <v>66.23999999999999</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -2798,7 +2837,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="4" t="n">
-        <v>63.85</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -2806,7 +2845,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="4" t="n">
-        <v>63.9</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -2814,7 +2853,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="4" t="n">
-        <v>63.09</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -2822,7 +2861,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="4" t="n">
-        <v>60.47</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -2830,7 +2869,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="4" t="n">
-        <v>58.51</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -2838,7 +2877,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="4" t="n">
-        <v>63.79</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -2846,7 +2885,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="4" t="n">
-        <v>68.63</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -2854,7 +2893,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="4" t="n">
-        <v>71.83</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -2862,7 +2901,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="4" t="n">
-        <v>74.94</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -2870,7 +2909,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="4" t="n">
-        <v>74.34999999999999</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -2878,7 +2917,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="4" t="n">
-        <v>73.01000000000001</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -2886,7 +2925,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="4" t="n">
-        <v>68.17</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -2894,7 +2933,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="4" t="n">
-        <v>62.25</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -2902,7 +2941,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="4" t="n">
-        <v>58.14</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -2910,7 +2949,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="4" t="n">
-        <v>54.55</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -2918,7 +2957,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="4" t="n">
-        <v>44.82</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -2926,7 +2965,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="4" t="n">
-        <v>37.48</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -2934,7 +2973,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="4" t="n">
-        <v>30.81</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -2942,7 +2981,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="4" t="n">
-        <v>26.25</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -2950,7 +2989,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="4" t="n">
-        <v>24.65</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -2958,7 +2997,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="4" t="n">
-        <v>22.18</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -2966,7 +3005,111 @@
         <v>233</v>
       </c>
       <c r="B233" s="4" t="n">
-        <v>20.61</v>
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" s="4" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="4" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="4" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="4" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" s="4" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" s="4" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" s="4" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" s="4" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="4" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" s="4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" s="4" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" s="4" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" s="4" t="n">
+        <v>2.83</v>
       </c>
     </row>
   </sheetData>
